--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_5_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_5_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.475379434717816e-16</v>
+        <v>1.482768647245618e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>56.85314449898195</v>
+        <v>57.34701107123192</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.05127689465086, 60.655012103313034]</t>
+          <t>[53.49745296139423, 61.196569181069606]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 1.6541318676558872]</t>
+          <t>[1.5409213215805782, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.39957018351645</v>
+        <v>54.88419412935608</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.77133092910455, 57.027809437928354]</t>
+          <t>[52.31785161850519, 57.45053664020698]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.20956956956984</v>
+        <v>18.08578578578606</v>
       </c>
       <c r="X2" t="n">
-        <v>17.91743743743771</v>
+        <v>17.79329329329356</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.50170170170198</v>
+        <v>18.37827827827856</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.475379434717816e-16</v>
+        <v>1.482768647245618e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57.62520702751279</v>
+        <v>57.74272860300625</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.428046502061555, 62.82236755296402]</t>
+          <t>[52.71443812024369, 62.771019085768806]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.767368904063081</v>
+        <v>-2.855421551010543</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.8680005005744653, -2.666737307551697]</t>
+          <t>[-2.943474197958005, -2.7673689040630807]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.64663203984939</v>
+        <v>54.30462137494557</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.77110299055751, 56.522161089141264]</t>
+          <t>[51.42499756581498, 57.18424518407616]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.12992992993016</v>
+        <v>11.47043043043066</v>
       </c>
       <c r="X3" t="n">
-        <v>10.72520520520543</v>
+        <v>11.11671671671694</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.53465465465489</v>
+        <v>11.82414414414438</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_5_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_5_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.482768647245618e-16</v>
+        <v>1.463226391598229e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.34701107123192</v>
+        <v>59.88742059201669</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.49745296139423, 61.196569181069606]</t>
+          <t>[56.169554753109104, 63.605286430924274]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5409213215805782, 1.6918687163476562]</t>
+          <t>[1.490605523324886, 1.616395018964118]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.88419412935608</v>
+        <v>54.3316288112274</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.31785161850519, 57.45053664020698]</t>
+          <t>[51.79453893680054, 56.868718685654265]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.08578578578606</v>
+        <v>18.27683683683711</v>
       </c>
       <c r="X2" t="n">
-        <v>17.79329329329356</v>
+        <v>18.03379379379406</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.37827827827856</v>
+        <v>18.51987987988015</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.482768647245618e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.463226391598229e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57.74272860300625</v>
+        <v>56.46073937379786</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.71443812024369, 62.771019085768806]</t>
+          <t>[51.31603913859824, 61.60543960899747]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.855421551010543</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.943474197958005, -2.7673689040630807]</t>
+          <t>[-2.9057373492662344, -2.704474156243466]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.30462137494557</v>
+        <v>53.3171661649547</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.42499756581498, 57.18424518407616]</t>
+          <t>[50.3848377476135, 56.249494582295895]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.47043043043066</v>
+        <v>11.272772772773</v>
       </c>
       <c r="X3" t="n">
-        <v>11.11671671671694</v>
+        <v>10.86836836836859</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.82414414414438</v>
+        <v>11.67717717717741</v>
       </c>
     </row>
   </sheetData>
